--- a/products/20.xlsx
+++ b/products/20.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Документы\GitHub\BP154\products\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -171,7 +166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -348,26 +343,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,45 +373,45 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30000</v>
+        <v>25500</v>
       </c>
       <c r="C2">
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="C3">
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="C4">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6150</v>
+        <v>6000</v>
       </c>
       <c r="C5">
         <v>373</v>
